--- a/Templates/ple_anexo2_estructuras_ver5_peruano_30_12_2015 (1).xlsx
+++ b/Templates/ple_anexo2_estructuras_ver5_peruano_30_12_2015 (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Repository\Freelances\Carestream\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="7635" tabRatio="897" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="15390" windowHeight="7635" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Reglas de nombres de libros" sheetId="27" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8078" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8478" uniqueCount="1385">
   <si>
     <t>Campo</t>
   </si>
@@ -5788,6 +5788,210 @@
   </si>
   <si>
     <t>2300.00</t>
+  </si>
+  <si>
+    <t>6100018172</t>
+  </si>
+  <si>
+    <t>M00001</t>
+  </si>
+  <si>
+    <t>13/01/2016</t>
+  </si>
+  <si>
+    <t>9010468445</t>
+  </si>
+  <si>
+    <t>038011</t>
+  </si>
+  <si>
+    <t>Carestream Health S.A.</t>
+  </si>
+  <si>
+    <t>6100018175</t>
+  </si>
+  <si>
+    <t>15/01/2016</t>
+  </si>
+  <si>
+    <t>9010468743</t>
+  </si>
+  <si>
+    <t>010780</t>
+  </si>
+  <si>
+    <t>9249</t>
+  </si>
+  <si>
+    <t>Carestream Health Inc.</t>
+  </si>
+  <si>
+    <t>150 Verona Street</t>
+  </si>
+  <si>
+    <t>6100018173</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>9010468340</t>
+  </si>
+  <si>
+    <t>039088</t>
+  </si>
+  <si>
+    <t>6100018171</t>
+  </si>
+  <si>
+    <t>6100018170</t>
+  </si>
+  <si>
+    <t>18/01/2016</t>
+  </si>
+  <si>
+    <t>E1600135</t>
+  </si>
+  <si>
+    <t>012441</t>
+  </si>
+  <si>
+    <t>9383</t>
+  </si>
+  <si>
+    <t>Carestream Health Ltd</t>
+  </si>
+  <si>
+    <t>PO Box 250,Yokneam 2069204</t>
+  </si>
+  <si>
+    <t>1900001792</t>
+  </si>
+  <si>
+    <t>21/01/2016</t>
+  </si>
+  <si>
+    <t>9010469363</t>
+  </si>
+  <si>
+    <t>016604</t>
+  </si>
+  <si>
+    <t>6100018174</t>
+  </si>
+  <si>
+    <t>22/01/2016</t>
+  </si>
+  <si>
+    <t>9010469535</t>
+  </si>
+  <si>
+    <t>035329</t>
+  </si>
+  <si>
+    <t>6100018176</t>
+  </si>
+  <si>
+    <t>26/01/2016</t>
+  </si>
+  <si>
+    <t>9010469773</t>
+  </si>
+  <si>
+    <t>018035</t>
+  </si>
+  <si>
+    <t>6100018185</t>
+  </si>
+  <si>
+    <t>9010469874</t>
+  </si>
+  <si>
+    <t>059607</t>
+  </si>
+  <si>
+    <t>6100018186</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>9010470637</t>
+  </si>
+  <si>
+    <t>060313</t>
+  </si>
+  <si>
+    <t>6100018177</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>9010470885</t>
+  </si>
+  <si>
+    <t>019967</t>
+  </si>
+  <si>
+    <t>6100018178</t>
+  </si>
+  <si>
+    <t>9010470934</t>
+  </si>
+  <si>
+    <t>019939</t>
+  </si>
+  <si>
+    <t>6100018180</t>
+  </si>
+  <si>
+    <t>9010470839</t>
+  </si>
+  <si>
+    <t>021370</t>
+  </si>
+  <si>
+    <t>9351</t>
+  </si>
+  <si>
+    <t>Carestream Health HK Holding Ltd</t>
+  </si>
+  <si>
+    <t>21 F Cigna Tower 482 Jaffe Road Causeway Bay</t>
+  </si>
+  <si>
+    <t>6100018181</t>
+  </si>
+  <si>
+    <t>15/02/2016</t>
+  </si>
+  <si>
+    <t>E1600362</t>
+  </si>
+  <si>
+    <t>024944</t>
+  </si>
+  <si>
+    <t>6100018187</t>
+  </si>
+  <si>
+    <t>9010471972</t>
+  </si>
+  <si>
+    <t>027047</t>
+  </si>
+  <si>
+    <t>5100008159</t>
+  </si>
+  <si>
+    <t>M00002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>3.43</t>
   </si>
 </sst>
 </file>
@@ -7121,19 +7325,31 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7144,18 +7360,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -10225,7 +10429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10520,7 +10724,7 @@
       <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="113" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="113" customWidth="1"/>
@@ -11229,7 +11433,7 @@
       <c r="D51" s="26"/>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="28"/>
       <c r="B52" s="29">
         <v>9.1</v>
@@ -11886,7 +12090,7 @@
       <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="56" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="56" customWidth="1"/>
@@ -12758,7 +12962,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="71" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="71" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>722</v>
       </c>
@@ -13197,7 +13401,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="71" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="71" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
@@ -13562,7 +13766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="71" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="71" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>179</v>
       </c>
@@ -13625,11 +13829,11 @@
   </sheetPr>
   <dimension ref="A1:G139"/>
   <sheetViews>
-    <sheetView topLeftCell="F97" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="95" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="95" customWidth="1"/>
@@ -13776,7 +13980,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="91" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="91" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
         <v>170</v>
       </c>
@@ -15807,7 +16011,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A111" s="94" t="s">
         <v>170</v>
       </c>
@@ -16359,7 +16563,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A135" s="94" t="s">
         <v>195</v>
       </c>
@@ -16492,7 +16696,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="56" customWidth="1"/>
     <col min="2" max="2" width="12" style="56" customWidth="1"/>
@@ -17521,7 +17725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="71" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>186</v>
       </c>
@@ -17544,7 +17748,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="71" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>187</v>
       </c>
@@ -17567,7 +17771,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="71" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="71" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>188</v>
       </c>
@@ -17710,7 +17914,7 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="56" customWidth="1"/>
     <col min="2" max="2" width="9" style="56" customWidth="1"/>
@@ -18641,7 +18845,7 @@
       </c>
       <c r="G47" s="160"/>
     </row>
-    <row r="48" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A48" s="160" t="s">
         <v>170</v>
       </c>
@@ -18783,7 +18987,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="56" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="56" customWidth="1"/>
@@ -19322,7 +19526,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="56" customWidth="1"/>
@@ -19597,7 +19801,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>178</v>
       </c>
@@ -20028,14 +20232,14 @@
   </sheetPr>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="56" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="56" customWidth="1"/>
@@ -20043,7 +20247,7 @@
     <col min="4" max="4" width="5.5703125" style="56" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" style="56" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="45" style="56" customWidth="1"/>
+    <col min="7" max="7" width="59.140625" style="56" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
@@ -20285,7 +20489,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="71" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="71" customFormat="1" ht="135" x14ac:dyDescent="0.2">
       <c r="A13" s="177" t="s">
         <v>177</v>
       </c>
@@ -21255,7 +21459,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A63" s="177" t="s">
         <v>177</v>
       </c>
@@ -22125,19 +22329,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="285"/>
-    <col min="3" max="3" width="16.42578125" style="285" customWidth="1"/>
-    <col min="4" max="14" width="9.140625" style="285"/>
-    <col min="15" max="16" width="9.140625" style="289"/>
-    <col min="17" max="23" width="9.140625" style="285"/>
-    <col min="24" max="24" width="9.140625" style="289"/>
-    <col min="25" max="43" width="9.140625" style="285"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="225.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53" style="285" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="160.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="125" style="285" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="155.140625" style="285" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="140.85546875" style="289" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="62.140625" style="289" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="150.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="62.140625" style="285" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="141" style="285" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="62.140625" style="285" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="82" style="285" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="59.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58" style="289" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="61" style="285" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="48.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="48.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="102.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="52" style="285" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="51" style="285" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="53.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="39.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="174.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="132.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="91.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="87.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="89.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="53.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="74.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21" style="285" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.2">
@@ -23150,24 +23392,29 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL10"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="K4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="9.140625" style="285"/>
+    <col min="2" max="2" width="11.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="285" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="285" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="285"/>
-    <col min="8" max="8" width="12.140625" style="285" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="289"/>
-    <col min="10" max="10" width="9.140625" style="285"/>
-    <col min="11" max="11" width="9.140625" style="299"/>
-    <col min="12" max="15" width="9.140625" style="285"/>
+    <col min="6" max="6" width="9.140625" style="285"/>
+    <col min="7" max="8" width="25.28515625" style="285" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="289" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" style="285" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" style="299" customWidth="1"/>
+    <col min="12" max="14" width="25.28515625" style="285" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="285"/>
     <col min="16" max="16" width="9.140625" style="289"/>
-    <col min="17" max="19" width="9.140625" style="285"/>
+    <col min="17" max="17" width="9.140625" style="285"/>
+    <col min="18" max="18" width="27.28515625" style="285" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="285"/>
     <col min="20" max="20" width="20.85546875" style="285" customWidth="1"/>
     <col min="21" max="21" width="32.42578125" style="285" customWidth="1"/>
     <col min="22" max="22" width="12" style="285" customWidth="1"/>
@@ -23640,7 +23887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="191" t="s">
         <v>4</v>
       </c>
@@ -24241,6 +24488,1622 @@
         <v>741</v>
       </c>
       <c r="AK10" s="287" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B13" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C13" s="285" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D13" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E13" s="285" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F13" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G13" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H13" s="285" t="s">
+        <v>1320</v>
+      </c>
+      <c r="I13" s="289">
+        <v>4396.71</v>
+      </c>
+      <c r="J13" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K13" s="299">
+        <v>4396.71</v>
+      </c>
+      <c r="L13" s="285" t="s">
+        <v>815</v>
+      </c>
+      <c r="M13" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N13" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O13" s="285" t="s">
+        <v>1321</v>
+      </c>
+      <c r="P13" s="289">
+        <v>824.35</v>
+      </c>
+      <c r="Q13" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R13" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S13" s="285" t="s">
+        <v>1292</v>
+      </c>
+      <c r="T13" s="285" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U13" s="285" t="s">
+        <v>1294</v>
+      </c>
+      <c r="V13" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z13" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA13" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG13" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH13" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI13" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ13" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK13" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B14" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C14" s="285" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D14" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E14" s="285" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F14" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G14" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H14" s="285" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I14" s="289">
+        <v>854.76</v>
+      </c>
+      <c r="J14" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K14" s="299">
+        <v>854.76</v>
+      </c>
+      <c r="L14" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M14" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N14" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O14" s="285" t="s">
+        <v>1326</v>
+      </c>
+      <c r="P14" s="289">
+        <v>159.57</v>
+      </c>
+      <c r="Q14" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R14" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S14" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T14" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U14" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V14" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z14" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA14" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG14" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH14" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI14" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ14" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK14" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B15" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C15" s="285" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D15" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E15" s="285" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F15" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G15" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H15" s="285" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I15" s="289">
+        <v>477410.78</v>
+      </c>
+      <c r="J15" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K15" s="299">
+        <v>477410.78</v>
+      </c>
+      <c r="L15" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M15" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N15" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O15" s="285" t="s">
+        <v>1333</v>
+      </c>
+      <c r="P15" s="289">
+        <v>86110.87</v>
+      </c>
+      <c r="Q15" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R15" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S15" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T15" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U15" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V15" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z15" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA15" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG15" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH15" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI15" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ15" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK15" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B16" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C16" s="285" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D16" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E16" s="285" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F16" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G16" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H16" s="285" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I16" s="289">
+        <v>11067.34</v>
+      </c>
+      <c r="J16" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K16" s="299">
+        <v>11067.34</v>
+      </c>
+      <c r="L16" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M16" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N16" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O16" s="285" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P16" s="289">
+        <v>1980.8</v>
+      </c>
+      <c r="Q16" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R16" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S16" s="285" t="s">
+        <v>1292</v>
+      </c>
+      <c r="T16" s="285" t="s">
+        <v>1322</v>
+      </c>
+      <c r="U16" s="285" t="s">
+        <v>1294</v>
+      </c>
+      <c r="V16" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z16" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA16" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG16" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH16" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI16" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ16" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK16" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B17" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C17" s="285" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D17" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E17" s="285" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F17" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G17" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H17" s="285" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I17" s="289">
+        <v>9398.82</v>
+      </c>
+      <c r="J17" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K17" s="299">
+        <v>9398.82</v>
+      </c>
+      <c r="L17" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M17" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N17" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O17" s="285" t="s">
+        <v>1338</v>
+      </c>
+      <c r="P17" s="289">
+        <v>1689</v>
+      </c>
+      <c r="Q17" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R17" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S17" s="285" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T17" s="285" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U17" s="285" t="s">
+        <v>1341</v>
+      </c>
+      <c r="V17" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z17" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA17" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG17" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH17" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI17" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ17" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK17" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B18" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C18" s="285" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D18" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E18" s="285" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F18" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G18" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H18" s="285" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I18" s="289">
+        <v>10398.65</v>
+      </c>
+      <c r="J18" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K18" s="299">
+        <v>10398.65</v>
+      </c>
+      <c r="L18" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M18" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N18" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O18" s="285" t="s">
+        <v>1345</v>
+      </c>
+      <c r="P18" s="289">
+        <v>1928.14</v>
+      </c>
+      <c r="Q18" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R18" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S18" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T18" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U18" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V18" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z18" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA18" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG18" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH18" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI18" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ18" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK18" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B19" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C19" s="285" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D19" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E19" s="285" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F19" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G19" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H19" s="285" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I19" s="289">
+        <v>2088.79</v>
+      </c>
+      <c r="J19" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K19" s="299">
+        <v>2088.79</v>
+      </c>
+      <c r="L19" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M19" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N19" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O19" s="285" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P19" s="289">
+        <v>374.87</v>
+      </c>
+      <c r="Q19" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R19" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S19" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T19" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U19" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V19" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z19" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA19" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG19" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH19" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI19" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ19" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK19" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B20" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C20" s="285" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D20" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E20" s="285" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F20" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G20" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H20" s="285" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I20" s="289">
+        <v>2326.66</v>
+      </c>
+      <c r="J20" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K20" s="299">
+        <v>2326.66</v>
+      </c>
+      <c r="L20" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M20" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N20" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O20" s="285" t="s">
+        <v>1353</v>
+      </c>
+      <c r="P20" s="289">
+        <v>442.21</v>
+      </c>
+      <c r="Q20" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R20" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S20" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T20" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U20" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V20" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z20" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA20" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG20" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH20" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI20" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ20" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK20" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B21" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C21" s="285" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D21" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E21" s="285" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F21" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G21" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H21" s="285" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I21" s="289">
+        <v>534002.48</v>
+      </c>
+      <c r="J21" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K21" s="299">
+        <v>534002.48</v>
+      </c>
+      <c r="L21" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M21" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N21" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O21" s="285" t="s">
+        <v>1356</v>
+      </c>
+      <c r="P21" s="289">
+        <v>96135.14</v>
+      </c>
+      <c r="Q21" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R21" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S21" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T21" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U21" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V21" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z21" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA21" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG21" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH21" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI21" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ21" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK21" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B22" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C22" s="285" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D22" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E22" s="285" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F22" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G22" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H22" s="285" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I22" s="289">
+        <v>185073.67</v>
+      </c>
+      <c r="J22" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K22" s="299">
+        <v>185073.67</v>
+      </c>
+      <c r="L22" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M22" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N22" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O22" s="285" t="s">
+        <v>1360</v>
+      </c>
+      <c r="P22" s="289">
+        <v>33339.56</v>
+      </c>
+      <c r="Q22" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R22" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S22" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T22" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U22" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V22" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z22" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA22" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG22" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH22" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI22" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ22" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK22" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B23" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C23" s="285" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D23" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E23" s="285" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F23" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G23" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H23" s="285" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I23" s="289">
+        <v>840.63</v>
+      </c>
+      <c r="J23" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K23" s="299">
+        <v>840.63</v>
+      </c>
+      <c r="L23" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M23" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N23" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O23" s="285" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P23" s="289">
+        <v>154</v>
+      </c>
+      <c r="Q23" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R23" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S23" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T23" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U23" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V23" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z23" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA23" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG23" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH23" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI23" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ23" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK23" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B24" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C24" s="285" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D24" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E24" s="285" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F24" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G24" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H24" s="285" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I24" s="289">
+        <v>4472.8100000000004</v>
+      </c>
+      <c r="J24" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K24" s="299">
+        <v>4472.8100000000004</v>
+      </c>
+      <c r="L24" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M24" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N24" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O24" s="285" t="s">
+        <v>1367</v>
+      </c>
+      <c r="P24" s="289">
+        <v>808.5</v>
+      </c>
+      <c r="Q24" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R24" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S24" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T24" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U24" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V24" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z24" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA24" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG24" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH24" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI24" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ24" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK24" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B25" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C25" s="285" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D25" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E25" s="285" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F25" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G25" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H25" s="285" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I25" s="289">
+        <v>23154.03</v>
+      </c>
+      <c r="J25" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K25" s="299">
+        <v>23154.03</v>
+      </c>
+      <c r="L25" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M25" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N25" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O25" s="285" t="s">
+        <v>1370</v>
+      </c>
+      <c r="P25" s="289">
+        <v>4166</v>
+      </c>
+      <c r="Q25" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R25" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S25" s="285" t="s">
+        <v>1371</v>
+      </c>
+      <c r="T25" s="285" t="s">
+        <v>1372</v>
+      </c>
+      <c r="U25" s="285" t="s">
+        <v>1373</v>
+      </c>
+      <c r="V25" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z25" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA25" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG25" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH25" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI25" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ25" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK25" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B26" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C26" s="285" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D26" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E26" s="285" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F26" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G26" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H26" s="285" t="s">
+        <v>1376</v>
+      </c>
+      <c r="I26" s="289">
+        <v>45293.19</v>
+      </c>
+      <c r="J26" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K26" s="299">
+        <v>45293.19</v>
+      </c>
+      <c r="L26" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M26" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N26" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O26" s="285" t="s">
+        <v>1377</v>
+      </c>
+      <c r="P26" s="289">
+        <v>9248.83</v>
+      </c>
+      <c r="Q26" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R26" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S26" s="285" t="s">
+        <v>1339</v>
+      </c>
+      <c r="T26" s="285" t="s">
+        <v>1340</v>
+      </c>
+      <c r="U26" s="285" t="s">
+        <v>1341</v>
+      </c>
+      <c r="V26" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z26" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA26" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG26" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH26" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI26" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ26" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK26" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B27" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C27" s="285" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D27" s="285" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E27" s="285" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F27" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G27" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H27" s="285" t="s">
+        <v>1379</v>
+      </c>
+      <c r="I27" s="289">
+        <v>1108.98</v>
+      </c>
+      <c r="J27" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K27" s="299">
+        <v>1108.98</v>
+      </c>
+      <c r="L27" s="285" t="s">
+        <v>811</v>
+      </c>
+      <c r="M27" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="N27" s="285" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O27" s="285" t="s">
+        <v>1380</v>
+      </c>
+      <c r="P27" s="289">
+        <v>197</v>
+      </c>
+      <c r="Q27" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R27" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="S27" s="285" t="s">
+        <v>1327</v>
+      </c>
+      <c r="T27" s="285" t="s">
+        <v>1328</v>
+      </c>
+      <c r="U27" s="285" t="s">
+        <v>1329</v>
+      </c>
+      <c r="V27" s="285" t="s">
+        <v>1273</v>
+      </c>
+      <c r="Z27" s="285" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA27" s="289">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="289">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="289">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="289">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG27" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH27" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI27" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AJ27" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK27" s="285" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B28" s="285" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C28" s="285" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D28" s="285" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E28" s="285" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F28" s="285" t="s">
+        <v>831</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H28" s="285" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I28" s="289">
+        <v>7936.89</v>
+      </c>
+      <c r="J28" s="285" t="s">
+        <v>1313</v>
+      </c>
+      <c r="K28" s="299">
+        <v>7936.89</v>
+      </c>
+      <c r="L28" s="285" t="s">
+        <v>806</v>
+      </c>
+      <c r="M28" s="285" t="s">
+        <v>1271</v>
+      </c>
+      <c r="N28" s="285" t="s">
+        <v>1383</v>
+      </c>
+      <c r="O28" s="285" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P28" s="289">
+        <v>1428.66</v>
+      </c>
+      <c r="Q28" s="285" t="s">
+        <v>1274</v>
+      </c>
+      <c r="R28" s="285" t="s">
+        <v>1384</v>
+      </c>
+      <c r="S28" s="285" t="s">
+        <v>1276</v>
+      </c>
+      <c r="T28" s="285" t="s">
+        <v>1277</v>
+      </c>
+      <c r="U28" s="285" t="s">
+        <v>1278</v>
+      </c>
+      <c r="V28" s="285" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Z28" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AA28" s="289">
+        <v>7936.89</v>
+      </c>
+      <c r="AB28" s="289">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="289">
+        <v>7936.89</v>
+      </c>
+      <c r="AD28" s="289">
+        <v>30</v>
+      </c>
+      <c r="AE28" s="289">
+        <v>2381.06</v>
+      </c>
+      <c r="AF28" s="285" t="s">
+        <v>741</v>
+      </c>
+      <c r="AG28" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AH28" s="285" t="s">
+        <v>759</v>
+      </c>
+      <c r="AI28" s="285" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ28" s="285" t="s">
+        <v>666</v>
+      </c>
+      <c r="AK28" s="285" t="s">
         <v>132</v>
       </c>
     </row>
@@ -24253,11 +26116,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="9" width="9.140625" style="285"/>
     <col min="10" max="10" width="13" style="285" customWidth="1"/>
@@ -25012,7 +26875,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="56" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="56" customWidth="1"/>
@@ -25268,7 +27131,7 @@
       <selection pane="bottomRight" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="56" customWidth="1"/>
     <col min="2" max="2" width="47.42578125" style="113" customWidth="1"/>
@@ -25313,16 +27176,16 @@
       <c r="C2" s="115"/>
     </row>
     <row r="3" spans="1:33" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="325" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="318" t="s">
+      <c r="B3" s="325" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="322" t="s">
+      <c r="C3" s="326" t="s">
         <v>1105</v>
       </c>
-      <c r="D3" s="324"/>
+      <c r="D3" s="328"/>
       <c r="E3" s="319" t="s">
         <v>736</v>
       </c>
@@ -25330,19 +27193,19 @@
       <c r="G3" s="319"/>
       <c r="H3" s="319"/>
       <c r="I3" s="319"/>
-      <c r="J3" s="320" t="s">
+      <c r="J3" s="322" t="s">
         <v>737</v>
       </c>
-      <c r="K3" s="321"/>
-      <c r="L3" s="320" t="s">
+      <c r="K3" s="323"/>
+      <c r="L3" s="322" t="s">
         <v>738</v>
       </c>
-      <c r="M3" s="321"/>
-      <c r="N3" s="322" t="s">
+      <c r="M3" s="323"/>
+      <c r="N3" s="326" t="s">
         <v>1106</v>
       </c>
-      <c r="O3" s="323"/>
-      <c r="P3" s="324"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="328"/>
       <c r="Q3" s="319" t="s">
         <v>736</v>
       </c>
@@ -25350,15 +27213,15 @@
       <c r="S3" s="319"/>
       <c r="T3" s="319"/>
       <c r="U3" s="319"/>
-      <c r="V3" s="327" t="s">
+      <c r="V3" s="320" t="s">
         <v>739</v>
       </c>
-      <c r="W3" s="328"/>
-      <c r="X3" s="320" t="s">
+      <c r="W3" s="321"/>
+      <c r="X3" s="322" t="s">
         <v>738</v>
       </c>
-      <c r="Y3" s="321"/>
-      <c r="Z3" s="325" t="s">
+      <c r="Y3" s="323"/>
+      <c r="Z3" s="317" t="s">
         <v>1032</v>
       </c>
       <c r="AA3" s="319" t="s">
@@ -25366,18 +27229,18 @@
       </c>
       <c r="AB3" s="319"/>
       <c r="AC3" s="319"/>
-      <c r="AD3" s="327" t="s">
+      <c r="AD3" s="320" t="s">
         <v>739</v>
       </c>
-      <c r="AE3" s="328"/>
-      <c r="AF3" s="320" t="s">
+      <c r="AE3" s="321"/>
+      <c r="AF3" s="322" t="s">
         <v>738</v>
       </c>
-      <c r="AG3" s="321"/>
+      <c r="AG3" s="323"/>
     </row>
     <row r="4" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="318"/>
-      <c r="B4" s="318"/>
+      <c r="A4" s="325"/>
+      <c r="B4" s="325"/>
       <c r="C4" s="272">
         <v>14.1</v>
       </c>
@@ -25447,7 +27310,7 @@
       <c r="Y4" s="272" t="s">
         <v>740</v>
       </c>
-      <c r="Z4" s="326"/>
+      <c r="Z4" s="318"/>
       <c r="AA4" s="272">
         <v>1</v>
       </c>
@@ -27014,7 +28877,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A21" s="116" t="s">
         <v>184</v>
       </c>
@@ -29240,7 +31103,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="124" t="s">
         <v>798</v>
       </c>
@@ -31167,52 +33030,52 @@
       <c r="A66" s="173"/>
     </row>
     <row r="67" spans="1:33" s="174" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="317" t="s">
+      <c r="A67" s="324" t="s">
         <v>945</v>
       </c>
-      <c r="B67" s="317"/>
-      <c r="C67" s="317"/>
-      <c r="D67" s="317"/>
-      <c r="E67" s="317"/>
-      <c r="F67" s="317"/>
-      <c r="G67" s="317"/>
-      <c r="H67" s="317"/>
-      <c r="I67" s="317"/>
-      <c r="J67" s="317"/>
-      <c r="K67" s="317"/>
-      <c r="L67" s="317"/>
-      <c r="M67" s="317"/>
-      <c r="N67" s="317"/>
-      <c r="O67" s="317"/>
-      <c r="P67" s="317"/>
-      <c r="Q67" s="317"/>
-      <c r="R67" s="317"/>
-      <c r="S67" s="317"/>
-      <c r="T67" s="317"/>
+      <c r="B67" s="324"/>
+      <c r="C67" s="324"/>
+      <c r="D67" s="324"/>
+      <c r="E67" s="324"/>
+      <c r="F67" s="324"/>
+      <c r="G67" s="324"/>
+      <c r="H67" s="324"/>
+      <c r="I67" s="324"/>
+      <c r="J67" s="324"/>
+      <c r="K67" s="324"/>
+      <c r="L67" s="324"/>
+      <c r="M67" s="324"/>
+      <c r="N67" s="324"/>
+      <c r="O67" s="324"/>
+      <c r="P67" s="324"/>
+      <c r="Q67" s="324"/>
+      <c r="R67" s="324"/>
+      <c r="S67" s="324"/>
+      <c r="T67" s="324"/>
     </row>
     <row r="68" spans="1:33" s="174" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="317" t="s">
+      <c r="A68" s="324" t="s">
         <v>946</v>
       </c>
-      <c r="B68" s="317"/>
-      <c r="C68" s="317"/>
-      <c r="D68" s="317"/>
-      <c r="E68" s="317"/>
-      <c r="F68" s="317"/>
-      <c r="G68" s="317"/>
-      <c r="H68" s="317"/>
-      <c r="I68" s="317"/>
-      <c r="J68" s="317"/>
-      <c r="K68" s="317"/>
-      <c r="L68" s="317"/>
-      <c r="M68" s="317"/>
-      <c r="N68" s="317"/>
-      <c r="O68" s="317"/>
-      <c r="P68" s="317"/>
-      <c r="Q68" s="317"/>
-      <c r="R68" s="317"/>
-      <c r="S68" s="317"/>
-      <c r="T68" s="317"/>
+      <c r="B68" s="324"/>
+      <c r="C68" s="324"/>
+      <c r="D68" s="324"/>
+      <c r="E68" s="324"/>
+      <c r="F68" s="324"/>
+      <c r="G68" s="324"/>
+      <c r="H68" s="324"/>
+      <c r="I68" s="324"/>
+      <c r="J68" s="324"/>
+      <c r="K68" s="324"/>
+      <c r="L68" s="324"/>
+      <c r="M68" s="324"/>
+      <c r="N68" s="324"/>
+      <c r="O68" s="324"/>
+      <c r="P68" s="324"/>
+      <c r="Q68" s="324"/>
+      <c r="R68" s="324"/>
+      <c r="S68" s="324"/>
+      <c r="T68" s="324"/>
     </row>
     <row r="69" spans="1:33" s="174" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="175" t="s">
@@ -31226,12 +33089,6 @@
     <row r="72" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A67:T67"/>
     <mergeCell ref="A68:T68"/>
     <mergeCell ref="A3:A4"/>
@@ -31242,6 +33099,12 @@
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.1811023622047245" bottom="0.98425196850393704" header="0" footer="0"/>
@@ -31261,7 +33124,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="60" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="62" customWidth="1"/>
@@ -31500,7 +33363,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="71" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="71" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
@@ -32209,7 +34072,7 @@
       <selection activeCell="E307" sqref="E307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" style="60" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="62" customWidth="1"/>
@@ -32450,7 +34313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>70</v>
       </c>
@@ -32757,7 +34620,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A29" s="138" t="s">
         <v>169</v>
       </c>
@@ -32826,7 +34689,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -33041,7 +34904,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
         <v>169</v>
       </c>
@@ -33273,7 +35136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
@@ -33319,7 +35182,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>169</v>
       </c>
@@ -33388,7 +35251,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -33586,7 +35449,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>169</v>
       </c>
@@ -33655,7 +35518,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>97</v>
       </c>
@@ -34263,7 +36126,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A102" s="138" t="s">
         <v>169</v>
       </c>
@@ -34332,7 +36195,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>97</v>
       </c>
@@ -34553,7 +36416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A116" s="138" t="s">
         <v>70</v>
       </c>
@@ -34599,7 +36462,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A118" s="138" t="s">
         <v>169</v>
       </c>
@@ -34866,7 +36729,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>169</v>
       </c>
@@ -35121,7 +36984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>70</v>
       </c>
@@ -35259,7 +37122,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="70" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>172</v>
       </c>
@@ -35451,7 +37314,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>169</v>
       </c>
@@ -35712,7 +37575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>70</v>
       </c>
@@ -35758,7 +37621,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>169</v>
       </c>
@@ -36008,7 +37871,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="65" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" s="65" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A187" s="10" t="s">
         <v>169</v>
       </c>
@@ -36324,7 +38187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A203" s="138" t="s">
         <v>70</v>
       </c>
@@ -36519,7 +38382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A213" s="138" t="s">
         <v>70</v>
       </c>
@@ -36629,7 +38492,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>171</v>
       </c>
@@ -37290,7 +39153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A250" s="138" t="s">
         <v>70</v>
       </c>
@@ -37903,7 +39766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="65" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" s="65" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>70</v>
       </c>
@@ -38110,7 +39973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>70</v>
       </c>
@@ -38282,7 +40145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A304" s="139" t="s">
         <v>70</v>
       </c>
@@ -38484,7 +40347,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.7109375" style="56" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="56" customWidth="1"/>
@@ -38823,7 +40686,7 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="166" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="166" customWidth="1"/>
@@ -39708,7 +41571,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="56" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="56" customWidth="1"/>
@@ -40225,7 +42088,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>189</v>
       </c>
@@ -40473,7 +42336,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A37" s="160" t="s">
         <v>176</v>
       </c>
@@ -40570,7 +42433,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="56" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="56" customWidth="1"/>
@@ -41152,6 +43015,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008A9594563BBEB14F89B4D97433583E69" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb25daac7ed7fea33683c28a9701e833">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b004d877ca112f136821ba8115f64728">
     <xsd:element name="properties">
@@ -41200,12 +43069,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{210B9750-DE7B-4107-B4D1-AC86F10B303C}">
   <ds:schemaRefs>
@@ -41215,6 +43078,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22032618-4A14-4470-A6B3-EC924FCFD4EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7908101F-772C-41C1-AF68-B1C9A57BF44F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41227,18 +43105,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22032618-4A14-4470-A6B3-EC924FCFD4EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Templates/ple_anexo2_estructuras_ver5_peruano_30_12_2015 (1).xlsx
+++ b/Templates/ple_anexo2_estructuras_ver5_peruano_30_12_2015 (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Repository\Freelances\Carestream\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\Freelances\Carestream\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="15390" windowHeight="7635" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="3150" yWindow="0" windowWidth="15390" windowHeight="7635" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Reglas de nombres de libros" sheetId="27" r:id="rId1"/>
@@ -28,9 +28,9 @@
     <sheet name="12 Reg. Inv. Perm. Und. Fisicas" sheetId="8" r:id="rId14"/>
     <sheet name="13 Reg. Inv. Perm. Valorizado" sheetId="7" r:id="rId15"/>
     <sheet name="14 Registro de Ventas" sheetId="5" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="30" r:id="rId17"/>
+    <sheet name="Compras" sheetId="30" r:id="rId17"/>
     <sheet name="R.Compras No Domiciliado" sheetId="31" r:id="rId18"/>
-    <sheet name="Sheet3" sheetId="32" r:id="rId19"/>
+    <sheet name="Diario" sheetId="32" r:id="rId19"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId20"/>
@@ -13980,7 +13980,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="91" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="91" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="94" t="s">
         <v>170</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A41" s="94" t="s">
         <v>792</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A78" s="94" t="s">
         <v>180</v>
       </c>
@@ -20232,7 +20232,7 @@
   </sheetPr>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -20397,7 +20397,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="70" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="70" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A9" s="177" t="s">
         <v>171</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="71" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="71" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
       <c r="A15" s="177" t="s">
         <v>179</v>
       </c>
@@ -20558,7 +20558,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="71" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="71" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A16" s="177" t="s">
         <v>180</v>
       </c>
@@ -20989,7 +20989,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="71" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="71" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A35" s="177" t="s">
         <v>198</v>
       </c>
@@ -21035,7 +21035,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="71" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="71" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="94" t="s">
         <v>200</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="101.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A55" s="223" t="s">
         <v>70</v>
       </c>
@@ -21298,7 +21298,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="180" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="135" x14ac:dyDescent="0.2">
       <c r="A56" s="223" t="s">
         <v>168</v>
       </c>
@@ -21367,7 +21367,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A59" s="177" t="s">
         <v>171</v>
       </c>
@@ -21685,7 +21685,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A73" s="177" t="s">
         <v>187</v>
       </c>
@@ -22329,8 +22329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO44" sqref="AO44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22650,7 +22650,7 @@
       <c r="AS2" s="290"/>
       <c r="AT2" s="290"/>
     </row>
-    <row r="3" spans="1:46" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="191" t="s">
         <v>2</v>
       </c>
@@ -22784,7 +22784,7 @@
       <c r="AS3" s="290"/>
       <c r="AT3" s="290"/>
     </row>
-    <row r="4" spans="1:46" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="191" t="s">
         <v>3</v>
       </c>
@@ -23056,7 +23056,7 @@
       </c>
       <c r="AT5" s="290"/>
     </row>
-    <row r="6" spans="1:46" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="191" t="s">
         <v>5</v>
       </c>
@@ -26116,20 +26116,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="Q1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="9.140625" style="285"/>
-    <col min="10" max="10" width="13" style="285" customWidth="1"/>
-    <col min="11" max="15" width="9.140625" style="285"/>
-    <col min="16" max="16" width="12.140625" style="285" customWidth="1"/>
-    <col min="17" max="17" width="31.28515625" style="285" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="285"/>
-    <col min="21" max="21" width="33.85546875" style="285" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="285"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="149.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="285" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.7109375" style="285" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" style="285" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="285" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" style="285" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="44.85546875" style="285" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="84.28515625" style="285" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.7109375" style="285" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="285" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
@@ -26274,7 +26288,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="189" t="s">
         <v>2</v>
       </c>
@@ -26345,7 +26359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="189" t="s">
         <v>3</v>
       </c>
@@ -26416,7 +26430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="189" t="s">
         <v>4</v>
       </c>
@@ -26558,7 +26572,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="189" t="s">
         <v>6</v>
       </c>
@@ -40682,8 +40696,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
